--- a/single.xlsx
+++ b/single.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicri\OneDrive\Desktop\mrt_cge_ibr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DBD5B-8B2C-4D02-8A42-4B37922BBBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95EE2C-1F63-426E-A47E-33914C93CF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1310" windowWidth="14280" windowHeight="8190" activeTab="1" xr2:uid="{3AD2CA89-0280-4C24-BDB7-9CD2384E3701}"/>
+    <workbookView xWindow="17250" yWindow="1370" windowWidth="14280" windowHeight="8190" activeTab="1" xr2:uid="{3AD2CA89-0280-4C24-BDB7-9CD2384E3701}"/>
   </bookViews>
   <sheets>
     <sheet name="macro" sheetId="1" r:id="rId1"/>
@@ -154,19 +154,19 @@
     <t>Employment</t>
   </si>
   <si>
-    <t>eb(bn$)</t>
+    <t>netwelf</t>
   </si>
   <si>
-    <t>netwelf</t>
+    <t>netwelf_globalscc</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>eb(bn$)_global</t>
+    <t>eb(bn$)</t>
   </si>
   <si>
-    <t>netwelf_globalscc</t>
+    <t>eb(bn$)_global</t>
   </si>
 </sst>
 </file>
@@ -8347,7 +8347,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>35</v>
@@ -8364,7 +8364,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>35</v>
@@ -8381,7 +8381,7 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>35</v>
@@ -8398,7 +8398,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>35</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>35</v>
@@ -8432,7 +8432,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>35</v>
@@ -8449,7 +8449,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>35</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>35</v>
@@ -8500,7 +8500,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>35</v>
@@ -8517,7 +8517,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>35</v>
@@ -8529,12 +8529,12 @@
         <v>3</v>
       </c>
       <c r="E472">
-        <v>6.0849773499866959</v>
+        <v>2.2288556232512535</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>35</v>
@@ -8546,12 +8546,12 @@
         <v>4</v>
       </c>
       <c r="E473">
-        <v>5.9993235328471206</v>
+        <v>2.254079297329743</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>35</v>
@@ -8563,12 +8563,12 @@
         <v>5</v>
       </c>
       <c r="E474">
-        <v>6.3310545046127764</v>
+        <v>2.1350312359758616</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>35</v>
@@ -8580,12 +8580,12 @@
         <v>6</v>
       </c>
       <c r="E475">
-        <v>6.2384916044603802</v>
+        <v>2.1547873983665382</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>35</v>
@@ -8597,12 +8597,12 @@
         <v>7</v>
       </c>
       <c r="E476">
-        <v>6.1163487192918335</v>
+        <v>2.2071241001852271</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>35</v>
@@ -8614,12 +8614,12 @@
         <v>3</v>
       </c>
       <c r="E477">
-        <v>5.8140096078537162</v>
+        <v>1.9578878811182741</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>35</v>
@@ -8631,12 +8631,12 @@
         <v>4</v>
       </c>
       <c r="E478">
-        <v>5.7488735410684368</v>
+        <v>2.0036293055510588</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>35</v>
@@ -8648,12 +8648,12 @@
         <v>5</v>
       </c>
       <c r="E479">
-        <v>6.0402368898270042</v>
+        <v>1.8442136211900912</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>35</v>
@@ -8665,12 +8665,12 @@
         <v>6</v>
       </c>
       <c r="E480">
-        <v>5.9781791975127367</v>
+        <v>1.8944749914188954</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>35</v>
@@ -8682,7 +8682,7 @@
         <v>7</v>
       </c>
       <c r="E481">
-        <v>5.8632300222920239</v>
+        <v>1.9540054031854166</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.35">
